--- a/wintegra/bridge_fh/FH Main Requirements Jul-26-2012 Tze-Wo.xlsx
+++ b/wintegra/bridge_fh/FH Main Requirements Jul-26-2012 Tze-Wo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
   <si>
     <t>DHCPv6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2273,21 +2273,6 @@
         <family val="2"/>
       </rPr>
       <t>这个就是我们手工设置一个MAC地址， 然后DEST符合这个MAC地址的包就会被送到CPU在串口上打印出来</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VPI/VCI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值可配置范围   Configuration range of VPI/VCI value</t>
     </r>
   </si>
   <si>
@@ -2930,12 +2915,6 @@
       </rPr>
       <t>bport_conf.max_mac_addresses = max_mac_addresses;</t>
     </r>
-  </si>
-  <si>
-    <t>01:80:c2:00:ff:00   --- correct
-01:80:c2:00:01:00
-这个特殊的地址才是
-reserved MAC address</t>
   </si>
   <si>
     <t xml:space="preserve">same as Row 4
@@ -2950,10 +2929,6 @@
   </si>
   <si>
     <t>keatin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这个说phenix需要好好看看， jane猜想是spoofing功能. Phenix has talked with Jeff and Jeff will ask FH to get the result.
-这个经过我的测试， 没问题的。 </t>
   </si>
   <si>
     <r>
@@ -3596,6 +3571,62 @@
       <t>all 0xff
 unicast: set single special MAC DA address will be OK</t>
     </r>
+  </si>
+  <si>
+    <t>phenix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01:80:c2:00:ff:00   --- correct
+01:80:c2:00:01:00
+这个特殊的地址才是
+reserved MAC address
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[morris, implemented in IPv6 group]</t>
+    </r>
+  </si>
+  <si>
+    <t>morris --- un-implemented.
+不过也没法测试， 只能是概念行的讲解一下.</t>
+  </si>
+  <si>
+    <t>这个说phenix需要好好看看， jane猜想是spoofing功能. Phenix has talked with Jeff and Jeff will ask FH to get the result.
+这个经过我的测试， 没问题的。 
+By Phenix.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VPI/VCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值可配置范围   Configuration range of VPI/VCI value</t>
+    </r>
+  </si>
+  <si>
+    <t>jerry</t>
   </si>
 </sst>
 </file>
@@ -4256,10 +4287,10 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="B35:E35"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4307,7 +4338,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>17</v>
@@ -4330,7 +4361,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11" t="s">
@@ -4349,7 +4380,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>49</v>
@@ -4361,19 +4392,19 @@
     <row r="5" spans="1:7" ht="118.5">
       <c r="A5" s="43"/>
       <c r="B5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="17">
         <v>2</v>
@@ -4387,7 +4418,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>21</v>
@@ -4412,7 +4443,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="10" t="s">
@@ -4431,7 +4462,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>55</v>
@@ -4446,13 +4477,13 @@
         <v>25</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17">
@@ -4471,7 +4502,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17">
@@ -4483,7 +4514,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>23</v>
@@ -4492,10 +4523,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="17">
         <v>2</v>
@@ -4513,7 +4544,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11" t="s">
@@ -4758,32 +4789,34 @@
       <c r="A27" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="129">
       <c r="A28" s="37"/>
       <c r="B28" s="34" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="11" t="s">
@@ -4792,13 +4825,15 @@
     </row>
     <row r="29" spans="1:7" ht="176.25">
       <c r="A29" s="37"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="C29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="17">
@@ -4807,13 +4842,15 @@
     </row>
     <row r="30" spans="1:7" ht="36">
       <c r="A30" s="37"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="C30" s="13" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="17">
@@ -4823,33 +4860,33 @@
     <row r="31" spans="1:7" ht="60">
       <c r="A31" s="37"/>
       <c r="B31" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60">
+    <row r="32" spans="1:7" ht="72">
       <c r="A32" s="37"/>
       <c r="B32" s="13" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="17">
@@ -4858,13 +4895,15 @@
     </row>
     <row r="33" spans="1:7" ht="72">
       <c r="A33" s="37"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="C33" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="17">
@@ -4874,14 +4913,14 @@
     <row r="34" spans="1:7" ht="48">
       <c r="A34" s="37"/>
       <c r="B34" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="17">
@@ -4891,14 +4930,14 @@
     <row r="35" spans="1:7" ht="84">
       <c r="A35" s="37"/>
       <c r="B35" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="17">
@@ -4907,13 +4946,15 @@
     </row>
     <row r="36" spans="1:7" ht="36">
       <c r="A36" s="37"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="C36" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="17">
@@ -4922,16 +4963,18 @@
     </row>
     <row r="37" spans="1:7" ht="126">
       <c r="A37" s="38"/>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="C37" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="17">
         <v>2</v>
@@ -4946,7 +4989,7 @@
       <c r="D38" s="28"/>
       <c r="E38" s="2"/>
       <c r="F38" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="28"/>
     </row>
